--- a/data/20000-changes/move.xlsx
+++ b/data/20000-changes/move.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\THESIS\data\20000-changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C3ADD-A107-457E-97FB-9F4D1BE57D6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11F808-BFFF-4804-A447-FA635E4B13CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -38542,8 +38542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ23"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AH23"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AM26" sqref="AM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -41687,7 +41687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C6D6B-0B07-4DE8-B020-3320E9CB0D91}">
   <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -47899,11 +47899,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
     <mergeCell ref="S32:W32"/>
     <mergeCell ref="S33:W33"/>
     <mergeCell ref="S34:W34"/>
@@ -47911,6 +47906,11 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
